--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A100919\PycharmProjects\ProjetoAcademiaControle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8B9CF2-597D-4B97-A8CC-CC981C6E1FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CDDDF5-EC43-4D60-AFE7-231E0C2577BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -41,37 +41,7 @@
     <t>Mensalidade</t>
   </si>
   <si>
-    <t>Goku</t>
-  </si>
-  <si>
     <t>466710317</t>
-  </si>
-  <si>
-    <t>Atrasado</t>
-  </si>
-  <si>
-    <t>Vedita</t>
-  </si>
-  <si>
-    <t>466710649</t>
-  </si>
-  <si>
-    <t>Kuririm</t>
-  </si>
-  <si>
-    <t>00666710216</t>
-  </si>
-  <si>
-    <t>Videl</t>
-  </si>
-  <si>
-    <t>0046671517</t>
-  </si>
-  <si>
-    <t>1298877896</t>
-  </si>
-  <si>
-    <t>Novo</t>
   </si>
   <si>
     <t>CPF do Aluno</t>
@@ -94,8 +64,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -151,8 +121,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +428,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F2:F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,84 +454,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>12997779831</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45916</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>12997778965</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45916</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>12997778952</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45916</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45916</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -578,21 +480,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>45916</v>
@@ -601,7 +503,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
